--- a/apache/wfm-urls.xlsx
+++ b/apache/wfm-urls.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="23715" windowHeight="11055"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -93,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,17 +142,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -233,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,7 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,21 +455,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -483,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -494,11 +506,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -508,7 +520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -522,7 +534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -536,7 +548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -545,30 +557,33 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
